--- a/Homework/HW4/problem5.xlsx
+++ b/Homework/HW4/problem5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN513/Homework/HW4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park-wanbae/Desktop/MFE/2018-1/FIN513/Homework/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25060" yWindow="1520" windowWidth="41940" windowHeight="22580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="FLOATING" sheetId="1" r:id="rId1"/>
     <sheet name="CONSTANT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -96,17 +96,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -135,17 +142,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -418,14 +428,14 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>20</v>
       </c>
@@ -453,12 +463,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>0</v>
       </c>
@@ -484,7 +494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>20</v>
       </c>
@@ -497,8 +507,8 @@
         <v>48.673399292065582</v>
       </c>
       <c r="E6" s="4">
-        <f>(C6 - $A$6) / $A$6</f>
-        <v>1.4336699646032791</v>
+        <f>LN(C6 / $A$6)</f>
+        <v>0.88940039153570249</v>
       </c>
       <c r="F6">
         <f>$B$2 ^2</f>
@@ -506,26 +516,26 @@
       </c>
       <c r="G6" s="5">
         <f>E6 * F6</f>
-        <v>0.43368516429249199</v>
+        <v>0.26904361843955005</v>
       </c>
       <c r="H6" s="5">
         <f>(E6 - $E$12)^2</f>
-        <v>1.1473425921192064</v>
+        <v>0.62266744405394847</v>
       </c>
       <c r="I6" s="5">
         <f>H6 * F6</f>
-        <v>0.34707113411606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.18835690182631945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <f>B6 * (1 / B23)</f>
         <v>22.338952018928847</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" ref="E7:E9" si="0">(C7 - $A$6) / $A$6</f>
-        <v>0.11694760094644234</v>
+        <f t="shared" ref="E7:E9" si="0">LN(C7 / $A$6)</f>
+        <v>0.11059960846429766</v>
       </c>
       <c r="F7">
         <f>$B$2 * (1 - $B$2)</f>
@@ -533,18 +543,18 @@
       </c>
       <c r="G7" s="5">
         <f>E7 * F7</f>
-        <v>2.894453123424448E-2</v>
+        <v>2.7373403094913672E-2</v>
       </c>
       <c r="H7" s="5">
         <f>(E7 - $E$12)^2</f>
-        <v>6.0310309292855975E-2</v>
+        <v>1.0592557387916697E-4</v>
       </c>
       <c r="I7" s="5">
         <f>H7 * F7</f>
-        <v>1.4926801549981853E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.6216579535093825E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="3">
         <f>A6 * (1 / A23)</f>
         <v>12.130613194252668</v>
@@ -555,7 +565,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>0.15259129597046411</v>
+        <v>0.1420127083438707</v>
       </c>
       <c r="F8">
         <f>$B$2 * (1 - $B$2)</f>
@@ -563,18 +573,18 @@
       </c>
       <c r="G8" s="5">
         <f>E8 * F8</f>
-        <v>3.7766345752689869E-2</v>
+        <v>3.5148145315107994E-2</v>
       </c>
       <c r="H8" s="5">
         <f>(E8 - $E$12)^2</f>
-        <v>4.4073912861840259E-2</v>
+        <v>1.7393166116525408E-3</v>
       </c>
       <c r="I8" s="5">
         <f>H8 * F8</f>
-        <v>1.0908293433305464E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.3048086138400385E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <f>B8 * (1 / B24)</f>
@@ -582,7 +592,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>-0.68082403323921203</v>
+        <v>-1.1420127083438707</v>
       </c>
       <c r="F9">
         <f>(1 - $B$2)^2</f>
@@ -590,18 +600,18 @@
       </c>
       <c r="G9" s="5">
         <f>E9 * F9</f>
-        <v>-0.1378668667309404</v>
+        <v>-0.23125757343963377</v>
       </c>
       <c r="H9" s="5">
         <f>(E9 - $E$12)^2</f>
-        <v>1.0885859162008791</v>
+        <v>1.5433597321496744</v>
       </c>
       <c r="I9" s="5">
         <f>H9 * F9</f>
-        <v>0.22043864803067797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.31253034576030897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="E11" t="s">
         <v>6</v>
       </c>
@@ -618,34 +628,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="E12" s="2">
         <f>SUM(G6:G9)</f>
-        <v>0.36252917454848599</v>
+        <v>0.10030759340993795</v>
       </c>
       <c r="F12" s="2">
         <f>SUM(I6:I9)</f>
-        <v>0.59334487713002526</v>
+        <v>0.50134394502754753</v>
       </c>
       <c r="G12" s="2">
         <f>F12 / 2</f>
-        <v>0.29667243856501263</v>
+        <v>0.25067197251377377</v>
       </c>
       <c r="H12" s="2">
         <f>SQRT(F12)</f>
-        <v>0.77028882708372792</v>
+        <v>0.70805645610187573</v>
       </c>
       <c r="I12" s="2">
         <f>SQRT(G12)</f>
-        <v>0.54467645310313595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.50067152157255135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>0</v>
       </c>
@@ -656,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <f>SQRT(5 / A6)</f>
         <v>0.5</v>
@@ -666,18 +676,18 @@
         <v>0.38940039153570238</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="B18" s="5">
         <f>SQRT(5 / B8)</f>
         <v>0.6420127083438707</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -688,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="4">
         <f>EXP(A17 * 1)</f>
         <v>1.6487212707001282</v>
@@ -698,24 +708,24 @@
         <v>1.476095449153648</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4">
         <f>EXP(B18 * 1)</f>
         <v>1.9003017860903311</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -726,7 +736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="5">
         <f>(EXP($C$2 * 1) - (1 / A23)) / (A23 - (1 / A23))</f>
         <v>0.38718397874376587</v>
@@ -736,19 +746,19 @@
         <v>0.41644587282361439</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="5"/>
       <c r="B32" s="5">
         <f>(EXP($C$2 * 1) - (1 / B24)) / (B24 - (1 / B24))</f>
         <v>0.35210586743335492</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -759,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="4">
         <f>(A31 * B36 + (1 - A31) *B38) / (1 + $C$2)</f>
         <v>5.6958268635506277</v>
@@ -773,7 +783,7 @@
         <v>28.673399292065582</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -781,7 +791,7 @@
         <v>2.3389520189288469</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>(B32 * C38 + (1 - B32) *C39) / (1 + $C$2)</f>
@@ -792,7 +802,7 @@
         <v>3.0518259194092821</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -801,6 +811,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -809,11 +820,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>20</v>
       </c>
@@ -838,10 +851,11 @@
         <v>0.01</v>
       </c>
       <c r="D2" s="2">
-        <v>0.54469999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <f>FLOATING!I12</f>
+        <v>0.50067152157255135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -852,26 +866,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <f>EXP($D$2 * 1)</f>
-        <v>1.7240910774613394</v>
+        <v>1.6498287944219443</v>
       </c>
       <c r="B6">
         <f>1 / A6</f>
-        <v>0.58001576197033811</v>
+        <v>0.60612349801445498</v>
       </c>
       <c r="C6">
         <f>(1 + $C$2 - B6) / (A6 - B6)</f>
-        <v>0.37583560470852928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.38696412040421541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -882,59 +896,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <f>A2</f>
         <v>20</v>
       </c>
       <c r="B10" s="3">
         <f>A10 * $A$6</f>
-        <v>34.481821549226787</v>
+        <v>32.996575888438883</v>
       </c>
       <c r="C10" s="3">
         <f>B10 * $A$6</f>
-        <v>59.449800867636043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54.438701018075321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <f>A10 * $B$6</f>
-        <v>11.600315239406761</v>
+        <v>12.122469960289099</v>
       </c>
       <c r="C11" s="3">
         <f>B11 * $A$6</f>
-        <v>19.999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <f>B11 * $B$6</f>
-        <v>6.7283656826806375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7.3477138969055797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <f>($C$6 * B15 + (1 - $C$6) * B16) / (1 + $C$2)</f>
-        <v>5.4625812388674753</v>
+        <v>5.0552822925071998</v>
       </c>
       <c r="B15" s="4">
         <f>($C$6 * C15 + (1 - $C$6) * C16) / (1 + $C$2)</f>
-        <v>14.679841351206985</v>
+        <v>13.194595690419083</v>
       </c>
       <c r="C15" s="4">
         <f>MAX(C10 - $B$2, 0)</f>
-        <v>39.449800867636043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.438701018075321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <f>($C$6 * C16 + (1 - $C$6) * C17) / (1 + $C$2)</f>
@@ -945,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -954,6 +968,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Homework/HW4/problem5.xlsx
+++ b/Homework/HW4/problem5.xlsx
@@ -821,7 +821,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/Homework/HW4/problem5.xlsx
+++ b/Homework/HW4/problem5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="FLOATING" sheetId="1" r:id="rId1"/>
@@ -738,19 +738,19 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5">
-        <f>(EXP($C$2 * 1) - (1 / A23)) / (A23 - (1 / A23))</f>
-        <v>0.38718397874376587</v>
+        <f>(1 + $C$2 - (1 / A23)) / (A23 - (1 / A23))</f>
+        <v>0.38713584255482014</v>
       </c>
       <c r="B31" s="5">
-        <f>(EXP($C$2 * 1) - (1 / B23)) / (B23 - (1 / B23))</f>
-        <v>0.41644587282361439</v>
+        <f>(1 + $C$2 - (1 / B23)) / (B23 - (1 / B23))</f>
+        <v>0.41638305659064107</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5"/>
       <c r="B32" s="5">
-        <f>(EXP($C$2 * 1) - (1 / B24)) / (B24 - (1 / B24))</f>
-        <v>0.35210586743335492</v>
+        <f>(1 + $C$2 - (1 / B24)) / (B24 - (1 / B24))</f>
+        <v>0.35206935757615671</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -772,11 +772,11 @@
     <row r="36" spans="1:3">
       <c r="A36" s="4">
         <f>(A31 * B36 + (1 - A31) *B38) / (1 + $C$2)</f>
-        <v>5.6958268635506277</v>
+        <v>5.6945549641692308</v>
       </c>
       <c r="B36" s="4">
         <f>(B31 * C36 + (1 - B31) *C37) / (1 + $C$2)</f>
-        <v>13.174083068235372</v>
+        <v>13.172445215982766</v>
       </c>
       <c r="C36" s="4">
         <f>MAX(C6 - $D$2, 0)</f>
@@ -795,7 +795,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <f>(B32 * C38 + (1 - B32) *C39) / (1 + $C$2)</f>
-        <v>1.063926547137823</v>
+        <v>1.0638162285947421</v>
       </c>
       <c r="C38" s="4">
         <f>MAX(C8 - $D$2, 0)</f>
